--- a/results/FrequencyTables/27974196_gGag4.xlsx
+++ b/results/FrequencyTables/27974196_gGag4.xlsx
@@ -465,34 +465,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07</v>
+        <v>0.00168175937904269</v>
       </c>
       <c r="C2">
-        <v>0.99</v>
+        <v>0.999353169469599</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.000258732212160414</v>
       </c>
       <c r="F2">
-        <v>0.99</v>
+        <v>0.957309184993532</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.979301423027167</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.000129366106080207</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.982147477360931</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -507,31 +507,31 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.999223803363519</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.0438551099611902</v>
       </c>
       <c r="R2">
-        <v>0.02</v>
+        <v>0.000388098318240621</v>
       </c>
       <c r="S2">
-        <v>0.01</v>
+        <v>0.000517464424320828</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.986028460543338</v>
       </c>
       <c r="U2">
-        <v>0.02</v>
+        <v>0.000646830530401035</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.02</v>
+        <v>0.111384217335058</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.000388098318240621</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -542,22 +542,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.000129366106080207</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.000129366106080207</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.000129366106080207</v>
       </c>
       <c r="G3">
-        <v>0.98</v>
+        <v>0.983182406209573</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00168175937904269</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -566,16 +566,16 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00646830530401035</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.000517464424320828</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.2</v>
+        <v>0.0939197930142303</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.02</v>
+        <v>0.000258732212160414</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -593,13 +593,13 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00116429495472186</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.000517464424320828</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.93</v>
+        <v>0.998188874514877</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>0.000517464424320828</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.999611901681759</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>0.0283311772315653</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0177231565329884</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.99974126778784</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00827943078913325</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.99987063389392</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.000129366106080207</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.000646830530401035</v>
       </c>
       <c r="Q4">
-        <v>0.98</v>
+        <v>0.952263906856404</v>
       </c>
       <c r="R4">
-        <v>0.98</v>
+        <v>0.999611901681759</v>
       </c>
       <c r="S4">
-        <v>0.99</v>
+        <v>0.999353169469599</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0109961190168176</v>
       </c>
       <c r="U4">
-        <v>0.98</v>
+        <v>0.999353169469599</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.98</v>
+        <v>0.878783958602846</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.999223803363519</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.000129366106080207</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -699,31 +699,31 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0134540750323415</v>
       </c>
       <c r="G5">
-        <v>0.02</v>
+        <v>0.0166882276843467</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000129366106080207</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000129366106080207</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0018111254851229</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.999353169469599</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8</v>
+        <v>0.901811125485123</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000776196636481242</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.998965071151358</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.000646830530401035</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.000129366106080207</v>
       </c>
     </row>
   </sheetData>
